--- a/Seikhuorhin'Vhadeinh Estimated Cost.xlsx
+++ b/Seikhuorhin'Vhadeinh Estimated Cost.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
   <si>
     <t>Material Type</t>
   </si>
@@ -80,9 +80,6 @@
     <t>Desk</t>
   </si>
   <si>
-    <t>Ottoman</t>
-  </si>
-  <si>
     <t>Oven/Range</t>
   </si>
   <si>
@@ -117,6 +114,12 @@
   </si>
   <si>
     <t>Sangria</t>
+  </si>
+  <si>
+    <t>Trailer</t>
+  </si>
+  <si>
+    <t>Ottoman w/ Storage</t>
   </si>
 </sst>
 </file>
@@ -457,10 +460,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D32"/>
+  <dimension ref="A1:D33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B33" sqref="B33"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -512,38 +515,38 @@
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B11" t="s">
+        <v>30</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
         <v>8</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B13" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B13" t="s">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B14" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
         <v>7</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B16" t="s">
         <v>15</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B16" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B17" t="s">
-        <v>21</v>
-      </c>
-      <c r="C17">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
@@ -551,23 +554,23 @@
         <v>20</v>
       </c>
       <c r="C18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B19" t="s">
+        <v>19</v>
+      </c>
+      <c r="C19">
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
         <v>9</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B21" t="s">
         <v>17</v>
-      </c>
-      <c r="C20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B21" t="s">
-        <v>27</v>
       </c>
       <c r="C21">
         <v>1</v>
@@ -575,51 +578,66 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B22" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="C22">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B23" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C23">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
-        <v>23</v>
-      </c>
-      <c r="B26" t="s">
-        <v>19</v>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B24" t="s">
+        <v>27</v>
+      </c>
+      <c r="C24">
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>22</v>
+      </c>
       <c r="B27" t="s">
-        <v>24</v>
+        <v>18</v>
+      </c>
+      <c r="C27">
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B28" t="s">
-        <v>26</v>
+        <v>23</v>
+      </c>
+      <c r="C28">
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B29" t="s">
-        <v>22</v>
+        <v>25</v>
+      </c>
+      <c r="C29">
+        <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B30" t="s">
-        <v>25</v>
+        <v>21</v>
+      </c>
+      <c r="C30">
+        <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B31" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C31">
         <v>1</v>
@@ -627,9 +645,17 @@
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B32" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B33" t="s">
+        <v>29</v>
+      </c>
+      <c r="C33">
         <v>999</v>
       </c>
     </row>
